--- a/config/UiPathConfig.xlsx
+++ b/config/UiPathConfig.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\TriggerMailBox\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F5E53B-D9C3-4617-9086-62066EB8A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BC73F-0547-4967-B6BB-2608BEEDBC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FD8040A-445A-4BAA-BF7F-DE21510475EB}"/>
+    <workbookView xWindow="2175" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{2FD8040A-445A-4BAA-BF7F-DE21510475EB}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="Assest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
   </si>
   <si>
     <t>Category</t>
@@ -52,13 +47,30 @@
   <si>
     <t>LaiSuat</t>
   </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -86,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +438,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,17 +447,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,10 +465,45 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391171B-FA7C-488B-BB55-C63C7103669C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
